--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/107.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/107.xlsx
@@ -479,13 +479,13 @@
         <v>0.1144638900364311</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.900565014065568</v>
+        <v>-1.830845411106676</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0727360964647052</v>
+        <v>-0.02783405299136049</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.3299339689234802</v>
+        <v>-0.3216388881542256</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.140012879707124</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.897793166392958</v>
+        <v>-1.841089127548101</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0470827328257466</v>
+        <v>-0.01277069000051291</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3053336240766718</v>
+        <v>-0.2905409923746879</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.1709500209602921</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.937350627939926</v>
+        <v>-1.874297782969302</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03867297694095748</v>
+        <v>0.06097682788978822</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3632764159699927</v>
+        <v>-0.3405601720113811</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.1887499439978602</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.083603762633822</v>
+        <v>-1.999719561602344</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1659985317012127</v>
+        <v>0.1743093526616804</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4124047007840297</v>
+        <v>-0.387771301535674</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.1849498546425598</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.929820520463623</v>
+        <v>-1.889749928683111</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3648459413142499</v>
+        <v>0.3712396069849733</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.4549708998813642</v>
+        <v>-0.4208052408344115</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.1619950667774701</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.785981931101803</v>
+        <v>-1.730659094035887</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5195342444791963</v>
+        <v>0.5011937736778007</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.4629779351514208</v>
+        <v>-0.4249984277735565</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.1334155483724144</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.436886526265008</v>
+        <v>-1.396924541803866</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7539167097747178</v>
+        <v>0.7395522112737277</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.4792942173628237</v>
+        <v>-0.4398209658388451</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.1116198210677567</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9270326135219715</v>
+        <v>-0.9084269204986368</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9159352199875616</v>
+        <v>0.8755789437365332</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.4497262681691903</v>
+        <v>-0.4205282134690626</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.1028186625712275</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.318662417995846</v>
+        <v>-0.308983774418968</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9593513894103983</v>
+        <v>0.8919581867127881</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.4076779213627638</v>
+        <v>-0.3840534683711617</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.1053224231287655</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3665694922520741</v>
+        <v>0.3293045895552804</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9213813261472619</v>
+        <v>0.8602102210361533</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.3293059352940812</v>
+        <v>-0.2993303151480309</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1143783304526894</v>
       </c>
       <c r="E12" t="n">
-        <v>1.153443687257986</v>
+        <v>1.073061678771403</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9238824425310087</v>
+        <v>0.851974952993508</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2080954448200792</v>
+        <v>-0.2013539209235483</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1243586171648965</v>
       </c>
       <c r="E13" t="n">
-        <v>2.019335216172314</v>
+        <v>1.871193258532857</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7393853652468698</v>
+        <v>0.6771911477069158</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.04335860358474917</v>
+        <v>-0.05055501900733592</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1314930000300018</v>
       </c>
       <c r="E14" t="n">
-        <v>2.890117222496523</v>
+        <v>2.654004910186692</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5511893430276744</v>
+        <v>0.479706838652925</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1286486319718687</v>
+        <v>0.1072671562281202</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1408962603385986</v>
       </c>
       <c r="E15" t="n">
-        <v>3.870476143969201</v>
+        <v>3.543325713721581</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3684992396947888</v>
+        <v>0.3058800369920835</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3102243297668734</v>
+        <v>0.2729861853951417</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1624184658034015</v>
       </c>
       <c r="E16" t="n">
-        <v>4.733872852576267</v>
+        <v>4.286273757109354</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1278159758567006</v>
+        <v>0.03362824565718877</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5403018527656376</v>
+        <v>0.4861634650885004</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2002836413079302</v>
       </c>
       <c r="E17" t="n">
-        <v>5.511686993519972</v>
+        <v>5.008599001969847</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.04333184525968706</v>
+        <v>-0.1758233307760511</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7747504268642537</v>
+        <v>0.7025580398657977</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.2522655384644585</v>
       </c>
       <c r="E18" t="n">
-        <v>6.291676428889315</v>
+        <v>5.711825098812477</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.2826677487299418</v>
+        <v>-0.4189620644433684</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9084177046642294</v>
+        <v>0.822361357245357</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.3146120367721182</v>
       </c>
       <c r="E19" t="n">
-        <v>6.876057785997258</v>
+        <v>6.225693547324391</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.5571499251597197</v>
+        <v>-0.7139017673926913</v>
       </c>
       <c r="G19" t="n">
-        <v>1.157518822763034</v>
+        <v>1.068378971885533</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.3843122443888755</v>
       </c>
       <c r="E20" t="n">
-        <v>7.384396705336043</v>
+        <v>6.660369945805424</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.8303240916996967</v>
+        <v>-0.9989794535375047</v>
       </c>
       <c r="G20" t="n">
-        <v>1.373275919796204</v>
+        <v>1.272241206419034</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.4554698402822712</v>
       </c>
       <c r="E21" t="n">
-        <v>7.710832530902592</v>
+        <v>6.968616406406223</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.132117073903163</v>
+        <v>-1.303146843585453</v>
       </c>
       <c r="G21" t="n">
-        <v>1.585913310930957</v>
+        <v>1.480244685260678</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.5193813109859445</v>
       </c>
       <c r="E22" t="n">
-        <v>7.938174408668536</v>
+        <v>7.170857401244785</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.336996911798585</v>
+        <v>-1.522466732899687</v>
       </c>
       <c r="G22" t="n">
-        <v>1.810019005383506</v>
+        <v>1.684799488207551</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.5703819288281747</v>
       </c>
       <c r="E23" t="n">
-        <v>8.116000792916603</v>
+        <v>7.313783059516251</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.544395180288088</v>
+        <v>-1.722036617289402</v>
       </c>
       <c r="G23" t="n">
-        <v>1.954271561774229</v>
+        <v>1.806685232884591</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.6112288814645308</v>
       </c>
       <c r="E24" t="n">
-        <v>8.220018272528637</v>
+        <v>7.412415819714316</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.713621124057368</v>
+        <v>-1.872841815282099</v>
       </c>
       <c r="G24" t="n">
-        <v>2.059475851803724</v>
+        <v>1.895965171463887</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.6474872909762884</v>
       </c>
       <c r="E25" t="n">
-        <v>8.236586397799448</v>
+        <v>7.439991060700383</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.844490582869231</v>
+        <v>-2.001509221343263</v>
       </c>
       <c r="G25" t="n">
-        <v>2.157239753446831</v>
+        <v>1.995872887150206</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.6815155088372425</v>
       </c>
       <c r="E26" t="n">
-        <v>8.208858476958616</v>
+        <v>7.445441888917447</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.967392356889071</v>
+        <v>-2.124585711485568</v>
       </c>
       <c r="G26" t="n">
-        <v>2.195250741207122</v>
+        <v>2.033584811277449</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.7125583123274883</v>
       </c>
       <c r="E27" t="n">
-        <v>8.13100276916172</v>
+        <v>7.364623877134264</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.029953320884288</v>
+        <v>-2.18785498408537</v>
       </c>
       <c r="G27" t="n">
-        <v>2.24836129439805</v>
+        <v>2.074950033785231</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.7378167480817724</v>
       </c>
       <c r="E28" t="n">
-        <v>8.022193975344445</v>
+        <v>7.267582450267834</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.058810600444654</v>
+        <v>-2.219324348377534</v>
       </c>
       <c r="G28" t="n">
-        <v>2.239822240664993</v>
+        <v>2.070597870914835</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.7552600401198057</v>
       </c>
       <c r="E29" t="n">
-        <v>7.855686362597652</v>
+        <v>7.130205209398952</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.005700047253726</v>
+        <v>-2.157282810692347</v>
       </c>
       <c r="G29" t="n">
-        <v>2.193568114766451</v>
+        <v>2.024926132091174</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.7651999009943022</v>
       </c>
       <c r="E30" t="n">
-        <v>7.617812722891085</v>
+        <v>6.913215655393803</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.988186723500574</v>
+        <v>-2.139882816315928</v>
       </c>
       <c r="G30" t="n">
-        <v>2.095276916717709</v>
+        <v>1.943053527496719</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.7696063618560245</v>
       </c>
       <c r="E31" t="n">
-        <v>7.389828645323651</v>
+        <v>6.695500478573734</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.936923281748493</v>
+        <v>-2.099505290806762</v>
       </c>
       <c r="G31" t="n">
-        <v>2.042133309125233</v>
+        <v>1.886486428315415</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.7703784380854142</v>
       </c>
       <c r="E32" t="n">
-        <v>7.190712078440872</v>
+        <v>6.533258457645666</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.857779239300812</v>
+        <v>-2.018273311994676</v>
       </c>
       <c r="G32" t="n">
-        <v>1.966791309865054</v>
+        <v>1.820391791392878</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.7667406181610271</v>
       </c>
       <c r="E33" t="n">
-        <v>6.881366952493405</v>
+        <v>6.259958369575985</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.814273350788061</v>
+        <v>-1.970944918045846</v>
       </c>
       <c r="G33" t="n">
-        <v>1.857662990166157</v>
+        <v>1.723680908541921</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.7561436274926838</v>
       </c>
       <c r="E34" t="n">
-        <v>6.585219976878045</v>
+        <v>6.012173131462588</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.757220666707836</v>
+        <v>-1.914246388267914</v>
       </c>
       <c r="G34" t="n">
-        <v>1.775485025862169</v>
+        <v>1.644753293723419</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.7368041544978906</v>
       </c>
       <c r="E35" t="n">
-        <v>6.236223735245892</v>
+        <v>5.692853446343439</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.765710138838571</v>
+        <v>-1.921733210218381</v>
       </c>
       <c r="G35" t="n">
-        <v>1.648907130184531</v>
+        <v>1.532459621571585</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.7085167505773806</v>
       </c>
       <c r="E36" t="n">
-        <v>5.855931271424918</v>
+        <v>5.350091894450759</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.772155747140298</v>
+        <v>-1.911609119230175</v>
       </c>
       <c r="G36" t="n">
-        <v>1.558802405585674</v>
+        <v>1.462883254352731</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.6724990747213192</v>
       </c>
       <c r="E37" t="n">
-        <v>5.459097440658195</v>
+        <v>5.001534804153449</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.747235876411865</v>
+        <v>-1.881173098491144</v>
       </c>
       <c r="G37" t="n">
-        <v>1.436154835653924</v>
+        <v>1.351057065879924</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.6314292521967821</v>
       </c>
       <c r="E38" t="n">
-        <v>5.114401419265437</v>
+        <v>4.68979087306512</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.745387977963458</v>
+        <v>-1.863599175001822</v>
       </c>
       <c r="G38" t="n">
-        <v>1.331570709158221</v>
+        <v>1.257384039933077</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5880941190159285</v>
       </c>
       <c r="E39" t="n">
-        <v>4.73975811007081</v>
+        <v>4.344627367993334</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.747443646935877</v>
+        <v>-1.844553543634083</v>
       </c>
       <c r="G39" t="n">
-        <v>1.242983338992297</v>
+        <v>1.170567441278616</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5449208644598541</v>
       </c>
       <c r="E40" t="n">
-        <v>4.376282466541813</v>
+        <v>4.022435097977812</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.76522455393965</v>
+        <v>-1.848505118638109</v>
       </c>
       <c r="G40" t="n">
-        <v>1.182780255640788</v>
+        <v>1.116614787857793</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5034096477257428</v>
       </c>
       <c r="E41" t="n">
-        <v>4.059547320819839</v>
+        <v>3.734658756049528</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.825523652457558</v>
+        <v>-1.903927905918227</v>
       </c>
       <c r="G41" t="n">
-        <v>1.124137025238489</v>
+        <v>1.056591142686112</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.464444302908225</v>
       </c>
       <c r="E42" t="n">
-        <v>3.647299120798219</v>
+        <v>3.360975598518896</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.815607331993364</v>
+        <v>-1.883032802082961</v>
       </c>
       <c r="G42" t="n">
-        <v>1.04677398542656</v>
+        <v>0.9884550029632481</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4276999357738288</v>
       </c>
       <c r="E43" t="n">
-        <v>3.365952646980449</v>
+        <v>3.118258701976087</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.822557413423467</v>
+        <v>-1.903077935592725</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9665493788521065</v>
+        <v>0.9221069489621815</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3931161161725703</v>
       </c>
       <c r="E44" t="n">
-        <v>3.077351519032604</v>
+        <v>2.853817193521087</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.833384303949334</v>
+        <v>-1.89947815386231</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8710489167054298</v>
+        <v>0.8266741696377208</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3604390670960392</v>
       </c>
       <c r="E45" t="n">
-        <v>2.819955320164545</v>
+        <v>2.623552362246888</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.808813078456269</v>
+        <v>-1.856531042137621</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8149335610119389</v>
+        <v>0.7708295452330937</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3292220082538152</v>
       </c>
       <c r="E46" t="n">
-        <v>2.595248350407659</v>
+        <v>2.415018438961366</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.754666033673965</v>
+        <v>-1.796118614242979</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7506726563657171</v>
+        <v>0.7180762943827012</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.299157577194111</v>
       </c>
       <c r="E47" t="n">
-        <v>2.354243986668825</v>
+        <v>2.207545404563601</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.719855026787279</v>
+        <v>-1.756088946959621</v>
       </c>
       <c r="G47" t="n">
-        <v>0.673564607651439</v>
+        <v>0.6468582252203302</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2704797971340517</v>
       </c>
       <c r="E48" t="n">
-        <v>2.157143738280432</v>
+        <v>2.01544581492358</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.625415453528359</v>
+        <v>-1.637559798058754</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5679007040385238</v>
+        <v>0.5338326341770917</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2429578688925946</v>
       </c>
       <c r="E49" t="n">
-        <v>1.983773402164768</v>
+        <v>1.859913837509616</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.579247898681488</v>
+        <v>-1.579878293339569</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5308010733494666</v>
+        <v>0.4858911597805154</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2168201930692379</v>
       </c>
       <c r="E50" t="n">
-        <v>1.888403583605159</v>
+        <v>1.773564722534182</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.498658119670893</v>
+        <v>-1.486530302341271</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4621093048767833</v>
+        <v>0.4167303336096845</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1912947252332014</v>
       </c>
       <c r="E51" t="n">
-        <v>1.713492282769741</v>
+        <v>1.607766992411095</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.478583866807385</v>
+        <v>-1.458763031022406</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3982261648196736</v>
+        <v>0.356758631069007</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1661372236476838</v>
       </c>
       <c r="E52" t="n">
-        <v>1.571285951236709</v>
+        <v>1.467972058171896</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.440195114457983</v>
+        <v>-1.419373202511856</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3411412133474616</v>
+        <v>0.3093649153266432</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1413587336033738</v>
       </c>
       <c r="E53" t="n">
-        <v>1.494487984289327</v>
+        <v>1.396930279151111</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.384436274095466</v>
+        <v>-1.366172143221454</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3078554309893159</v>
+        <v>0.2808059123897636</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1173943503959503</v>
       </c>
       <c r="E54" t="n">
-        <v>1.385496604253983</v>
+        <v>1.28713300132566</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.299510072405688</v>
+        <v>-1.270526084306057</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2670662994799299</v>
+        <v>0.2410682256534064</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.09531168875309019</v>
       </c>
       <c r="E55" t="n">
-        <v>1.263143375897916</v>
+        <v>1.175051821755202</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.261894163444844</v>
+        <v>-1.223589621118431</v>
       </c>
       <c r="G55" t="n">
-        <v>0.225513768696713</v>
+        <v>0.1974253974771022</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.07551763065844255</v>
       </c>
       <c r="E56" t="n">
-        <v>1.215263288247071</v>
+        <v>1.114859756537542</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.237660565053298</v>
+        <v>-1.201139386391319</v>
       </c>
       <c r="G56" t="n">
-        <v>0.204124422857358</v>
+        <v>0.1783482857269379</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.05771208206460376</v>
       </c>
       <c r="E57" t="n">
-        <v>1.149968253038154</v>
+        <v>1.051049021360013</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.216519127225548</v>
+        <v>-1.184121091651816</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1617313658633665</v>
+        <v>0.1389033665471427</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.04201122249028526</v>
       </c>
       <c r="E58" t="n">
-        <v>1.074920595353659</v>
+        <v>0.9924026429194702</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.2233582403076</v>
+        <v>-1.188534641267943</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1460226550327857</v>
+        <v>0.1229931812690353</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.02781602474253322</v>
       </c>
       <c r="E59" t="n">
-        <v>1.027559934012842</v>
+        <v>0.9532268810094174</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.234325218535262</v>
+        <v>-1.199315885239292</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1335768858406611</v>
+        <v>0.1100216896903964</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.01480661184119566</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9698075984331989</v>
+        <v>0.9212223502160105</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.236350981144376</v>
+        <v>-1.210810946882151</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1034643260310577</v>
+        <v>0.08443600887365367</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.002542523930909908</v>
       </c>
       <c r="E61" t="n">
-        <v>0.948586672639823</v>
+        <v>0.9192076057407457</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.232612685731287</v>
+        <v>-1.194345132854225</v>
       </c>
       <c r="G61" t="n">
-        <v>0.09376049814823895</v>
+        <v>0.07863889644990324</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.009744830985392888</v>
       </c>
       <c r="E62" t="n">
-        <v>0.8929419486636011</v>
+        <v>0.8759519862682814</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.240004279524915</v>
+        <v>-1.197622240664773</v>
       </c>
       <c r="G62" t="n">
-        <v>0.09229508634630801</v>
+        <v>0.0787758361134564</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.0227970728973395</v>
       </c>
       <c r="E63" t="n">
-        <v>0.8489906127395219</v>
+        <v>0.8389688329942004</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.285682314425061</v>
+        <v>-1.238426325355811</v>
       </c>
       <c r="G63" t="n">
-        <v>0.05991436498291026</v>
+        <v>0.05720390405603047</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.03709016659924065</v>
       </c>
       <c r="E64" t="n">
-        <v>0.7877801571503809</v>
+        <v>0.788608091208185</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.306378304841483</v>
+        <v>-1.243293979488433</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0394300801383031</v>
+        <v>0.0387343636866882</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.05274780604473955</v>
       </c>
       <c r="E65" t="n">
-        <v>0.7469060286084446</v>
+        <v>0.7556827592288172</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.359059150812296</v>
+        <v>-1.298425573231111</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.006203882226446435</v>
+        <v>-0.007478837714699992</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.06978419553129946</v>
       </c>
       <c r="E66" t="n">
-        <v>0.6924496890688047</v>
+        <v>0.7164487586112762</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.405068516737476</v>
+        <v>-1.331550018629324</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.03345487527352525</v>
+        <v>-0.0294663108201493</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.08806629291851513</v>
       </c>
       <c r="E67" t="n">
-        <v>0.6561811404757942</v>
+        <v>0.6989189076573504</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.475744336312558</v>
+        <v>-1.391791665449304</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.06635974500431611</v>
+        <v>-0.05732644926717147</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1080312851533871</v>
       </c>
       <c r="E68" t="n">
-        <v>0.6147450871075536</v>
+        <v>0.6894779409677889</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.530272293722218</v>
+        <v>-1.435986974337185</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.09133785444023673</v>
+        <v>-0.07120142782143704</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.1292707732824533</v>
       </c>
       <c r="E69" t="n">
-        <v>0.5435663684232152</v>
+        <v>0.6406707560544972</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.56550277670473</v>
+        <v>-1.474990381153455</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.09293390982923563</v>
+        <v>-0.06434027847168734</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1513560299703944</v>
       </c>
       <c r="E70" t="n">
-        <v>0.4516546698731042</v>
+        <v>0.5540367436181074</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.646195653967771</v>
+        <v>-1.552139354364887</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.1205500753124562</v>
+        <v>-0.08734456792949689</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1730641107439483</v>
       </c>
       <c r="E71" t="n">
-        <v>0.3357045513024889</v>
+        <v>0.4482484924946095</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.713337013605973</v>
+        <v>-1.613075143617362</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.1405621544206732</v>
+        <v>-0.1027416229740602</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1929424494045716</v>
       </c>
       <c r="E72" t="n">
-        <v>0.2314950413576556</v>
+        <v>0.3582854296166686</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.808101621813441</v>
+        <v>-1.693484697438568</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1582431112102438</v>
+        <v>-0.107493586701267</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.2101260179157844</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1458369207764722</v>
+        <v>0.2822760462490584</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.891312142661002</v>
+        <v>-1.773843882647892</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.1826624438581027</v>
+        <v>-0.1237909806832143</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2237526981000588</v>
       </c>
       <c r="E74" t="n">
-        <v>0.01702234392746651</v>
+        <v>0.1581300101138306</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.922173935572345</v>
+        <v>-1.797578516977986</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2099826937465187</v>
+        <v>-0.1533400416473921</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2334164466568354</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.05047317001302828</v>
+        <v>0.09476629636675009</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.000941787450035</v>
+        <v>-1.863192291058965</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2425869258251411</v>
+        <v>-0.1807075121094472</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2389523421215566</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.1247700205766634</v>
+        <v>0.02854416389538755</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.033735688832774</v>
+        <v>-1.905143048679871</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2560148829489573</v>
+        <v>-0.1913777877327446</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2406128193158724</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.1959723495478213</v>
+        <v>-0.03319358809938933</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.057021727713296</v>
+        <v>-1.923163206590082</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.2713678654581242</v>
+        <v>-0.2065529060812045</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2390198399880737</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.2243770986108135</v>
+        <v>-0.05420044729226831</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.016362452781417</v>
+        <v>-1.901348088578415</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.2556339703216025</v>
+        <v>-0.1887712120678706</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2346325813283512</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.2479338687801996</v>
+        <v>-0.085539167997365</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.029950172846045</v>
+        <v>-1.908955322991662</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.2545903956441802</v>
+        <v>-0.188720843455989</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2277291914643561</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.2478693339962262</v>
+        <v>-0.08044564212083598</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.992954427418994</v>
+        <v>-1.909880059225426</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.2251058694639757</v>
+        <v>-0.1609567201753662</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2186591490971186</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.2267334052354006</v>
+        <v>-0.0576113467281269</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.976941143888441</v>
+        <v>-1.906658042084123</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2190537659425745</v>
+        <v>-0.1550305381836691</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2079285190578408</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.139315531276603</v>
+        <v>0.01610941283711212</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.914901180222375</v>
+        <v>-1.850776428230146</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2317198978116812</v>
+        <v>-0.1723746548812813</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1960932215980841</v>
       </c>
       <c r="E83" t="n">
-        <v>0.02828917279773684</v>
+        <v>0.1700437608429555</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.843528857186117</v>
+        <v>-1.792259906367111</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1857050228195769</v>
+        <v>-0.1282690650833148</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1830954687808475</v>
       </c>
       <c r="E84" t="n">
-        <v>0.185368411007939</v>
+        <v>0.3040840811746794</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.727337913689942</v>
+        <v>-1.695349123087748</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1408769582449333</v>
+        <v>-0.08063767245363467</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1686484979792086</v>
       </c>
       <c r="E85" t="n">
-        <v>0.378933412449891</v>
+        <v>0.4623532778405849</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.555109528446782</v>
+        <v>-1.53449853506291</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1127744208532308</v>
+        <v>-0.06084123396503591</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1524108676771288</v>
       </c>
       <c r="E86" t="n">
-        <v>0.6322182733731125</v>
+        <v>0.6981539343643983</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.386668233209471</v>
+        <v>-1.385616001426881</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.02618448095223736</v>
+        <v>0.02549056680006422</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1338231551766612</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9105111500955594</v>
+        <v>0.9570265631682373</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.168802737563318</v>
+        <v>-1.184604315522055</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02928395288239887</v>
+        <v>0.06881859115210824</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1128762926080718</v>
       </c>
       <c r="E88" t="n">
-        <v>1.140805887733063</v>
+        <v>1.17600567734271</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9972802998960606</v>
+        <v>-1.020127974451301</v>
       </c>
       <c r="G88" t="n">
-        <v>0.07697673225780971</v>
+        <v>0.1100138195947898</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.09042808356455399</v>
       </c>
       <c r="E89" t="n">
-        <v>1.377319574918826</v>
+        <v>1.401749925700534</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7589753789502578</v>
+        <v>-0.8112343877965619</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1316660266274021</v>
+        <v>0.1693527664487045</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.06832781857632715</v>
       </c>
       <c r="E90" t="n">
-        <v>1.577745725710527</v>
+        <v>1.565274772212462</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4965549110470071</v>
+        <v>-0.5729215967551525</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1578010401174787</v>
+        <v>0.1850567552219214</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.04916845144894237</v>
       </c>
       <c r="E91" t="n">
-        <v>1.752378425161475</v>
+        <v>1.729109700491287</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.216768290178446</v>
+        <v>-0.2949608380673002</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1194658044182005</v>
+        <v>0.1310584552465801</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.03580518732700639</v>
       </c>
       <c r="E92" t="n">
-        <v>1.798498759434706</v>
+        <v>1.767213555379734</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.02388956107338096</v>
+        <v>-0.1078020944490419</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1358733797386389</v>
+        <v>0.1407984855691887</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.02951228478361267</v>
       </c>
       <c r="E93" t="n">
-        <v>1.794491306751875</v>
+        <v>1.776632485801597</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1865174449664885</v>
+        <v>0.09517081928092436</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0982291384336116</v>
+        <v>0.1067351377651205</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.03013200161497639</v>
       </c>
       <c r="E94" t="n">
-        <v>1.723170926346619</v>
+        <v>1.705294791186007</v>
       </c>
       <c r="F94" t="n">
-        <v>0.3614869845093943</v>
+        <v>0.2673323087114297</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1037555195684983</v>
+        <v>0.1120710625863298</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.03721538764635213</v>
       </c>
       <c r="E95" t="n">
-        <v>1.684417001561075</v>
+        <v>1.670257125545854</v>
       </c>
       <c r="F95" t="n">
-        <v>0.4621596734886649</v>
+        <v>0.3834980679016631</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04289449622428592</v>
+        <v>0.04684371019962934</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.04921675015109725</v>
       </c>
       <c r="E96" t="n">
-        <v>1.572093423045937</v>
+        <v>1.556463413171421</v>
       </c>
       <c r="F96" t="n">
-        <v>0.5301148010125795</v>
+        <v>0.4632457466823624</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02679362635218073</v>
+        <v>-0.01067724456918299</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.06296365311777022</v>
       </c>
       <c r="E97" t="n">
-        <v>1.525817260879696</v>
+        <v>1.494870470935804</v>
       </c>
       <c r="F97" t="n">
-        <v>0.5345362207243132</v>
+        <v>0.4708466850191234</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.04591166259949889</v>
+        <v>-0.03224130653100241</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.07618452519850082</v>
       </c>
       <c r="E98" t="n">
-        <v>1.397677938233729</v>
+        <v>1.364278826498849</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5528892836786792</v>
+        <v>0.4999361323998814</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.110142660882416</v>
+        <v>-0.1012510268661885</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.08670541344032157</v>
       </c>
       <c r="E99" t="n">
-        <v>1.317147971949743</v>
+        <v>1.279964918247257</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5542885866775155</v>
+        <v>0.4997692863730235</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1120519460765538</v>
+        <v>-0.09894194081524035</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.09734220855044715</v>
       </c>
       <c r="E100" t="n">
-        <v>1.207970857658085</v>
+        <v>1.164106092785677</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5606995665585732</v>
+        <v>0.5049163288996769</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1561968863525529</v>
+        <v>-0.1508782757416779</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.109897236408846</v>
       </c>
       <c r="E101" t="n">
-        <v>1.106112932280475</v>
+        <v>1.057153067512417</v>
       </c>
       <c r="F101" t="n">
-        <v>0.503336013701891</v>
+        <v>0.4627562267356379</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1857050228195769</v>
+        <v>-0.1755305632194892</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.131381901436459</v>
       </c>
       <c r="E102" t="n">
-        <v>1.020969515951957</v>
+        <v>0.9866936755665127</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4685753754270865</v>
+        <v>0.4353494057955503</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2286946330605412</v>
+        <v>-0.2137288592552143</v>
       </c>
     </row>
   </sheetData>
